--- a/data/SFG_2022.xlsx
+++ b/data/SFG_2022.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC68"/>
+  <dimension ref="A1:AF68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,6 +579,21 @@
           <t>Unnamed: 28</t>
         </is>
       </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Ties</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -718,6 +733,15 @@
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -861,6 +885,15 @@
         </is>
       </c>
       <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1000,6 +1033,15 @@
       </c>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1139,6 +1181,15 @@
       </c>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1282,6 +1333,15 @@
         </is>
       </c>
       <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1425,6 +1485,15 @@
         </is>
       </c>
       <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1564,6 +1633,15 @@
       </c>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1703,6 +1781,15 @@
       </c>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1846,6 +1933,15 @@
         </is>
       </c>
       <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1985,6 +2081,15 @@
       </c>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2128,6 +2233,15 @@
         </is>
       </c>
       <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2267,6 +2381,15 @@
       </c>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2410,6 +2533,15 @@
         </is>
       </c>
       <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2549,6 +2681,15 @@
       </c>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2688,6 +2829,15 @@
       </c>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2831,6 +2981,15 @@
         </is>
       </c>
       <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2970,6 +3129,15 @@
       </c>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3109,6 +3277,15 @@
       </c>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3248,6 +3425,15 @@
       </c>
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3387,6 +3573,15 @@
       </c>
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3526,6 +3721,15 @@
       </c>
       <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3669,6 +3873,15 @@
         </is>
       </c>
       <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3808,6 +4021,15 @@
       </c>
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3951,6 +4173,15 @@
         </is>
       </c>
       <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4090,6 +4321,15 @@
       </c>
       <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4229,6 +4469,15 @@
       </c>
       <c r="AB27" t="inlineStr"/>
       <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4368,6 +4617,15 @@
       </c>
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4511,6 +4769,15 @@
         </is>
       </c>
       <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4650,6 +4917,15 @@
       </c>
       <c r="AB30" t="inlineStr"/>
       <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4789,6 +5065,15 @@
       </c>
       <c r="AB31" t="inlineStr"/>
       <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4932,6 +5217,15 @@
         </is>
       </c>
       <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5075,6 +5369,15 @@
         </is>
       </c>
       <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5214,6 +5517,15 @@
       </c>
       <c r="AB34" t="inlineStr"/>
       <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5353,6 +5665,15 @@
       </c>
       <c r="AB35" t="inlineStr"/>
       <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5492,6 +5813,15 @@
       </c>
       <c r="AB36" t="inlineStr"/>
       <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5635,6 +5965,15 @@
         </is>
       </c>
       <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5774,6 +6113,15 @@
       </c>
       <c r="AB38" t="inlineStr"/>
       <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5913,6 +6261,15 @@
       </c>
       <c r="AB39" t="inlineStr"/>
       <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6056,6 +6413,15 @@
         </is>
       </c>
       <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6195,6 +6561,15 @@
       </c>
       <c r="AB41" t="inlineStr"/>
       <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6334,6 +6709,15 @@
       </c>
       <c r="AB42" t="inlineStr"/>
       <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6473,6 +6857,15 @@
       </c>
       <c r="AB43" t="inlineStr"/>
       <c r="AC43" t="inlineStr"/>
+      <c r="AD43" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6612,6 +7005,15 @@
       </c>
       <c r="AB44" t="inlineStr"/>
       <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6751,6 +7153,15 @@
       </c>
       <c r="AB45" t="inlineStr"/>
       <c r="AC45" t="inlineStr"/>
+      <c r="AD45" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6898,6 +7309,15 @@
           <t>All-Star</t>
         </is>
       </c>
+      <c r="AD46" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -7037,6 +7457,15 @@
       </c>
       <c r="AB47" t="inlineStr"/>
       <c r="AC47" t="inlineStr"/>
+      <c r="AD47" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -7176,6 +7605,15 @@
       </c>
       <c r="AB48" t="inlineStr"/>
       <c r="AC48" t="inlineStr"/>
+      <c r="AD48" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7323,6 +7761,15 @@
           <t>All-Star</t>
         </is>
       </c>
+      <c r="AD49" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7462,6 +7909,15 @@
       </c>
       <c r="AB50" t="inlineStr"/>
       <c r="AC50" t="inlineStr"/>
+      <c r="AD50" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7601,6 +8057,15 @@
       </c>
       <c r="AB51" t="inlineStr"/>
       <c r="AC51" t="inlineStr"/>
+      <c r="AD51" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7740,6 +8205,15 @@
       </c>
       <c r="AB52" t="inlineStr"/>
       <c r="AC52" t="inlineStr"/>
+      <c r="AD52" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7883,6 +8357,15 @@
         </is>
       </c>
       <c r="AC53" t="inlineStr"/>
+      <c r="AD53" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -8022,6 +8505,15 @@
       </c>
       <c r="AB54" t="inlineStr"/>
       <c r="AC54" t="inlineStr"/>
+      <c r="AD54" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -8161,6 +8653,15 @@
       </c>
       <c r="AB55" t="inlineStr"/>
       <c r="AC55" t="inlineStr"/>
+      <c r="AD55" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -8300,6 +8801,15 @@
       </c>
       <c r="AB56" t="inlineStr"/>
       <c r="AC56" t="inlineStr"/>
+      <c r="AD56" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -8439,6 +8949,15 @@
       </c>
       <c r="AB57" t="inlineStr"/>
       <c r="AC57" t="inlineStr"/>
+      <c r="AD57" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -8578,6 +9097,15 @@
       </c>
       <c r="AB58" t="inlineStr"/>
       <c r="AC58" t="inlineStr"/>
+      <c r="AD58" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -8717,6 +9245,15 @@
       </c>
       <c r="AB59" t="inlineStr"/>
       <c r="AC59" t="inlineStr"/>
+      <c r="AD59" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8856,6 +9393,15 @@
       </c>
       <c r="AB60" t="inlineStr"/>
       <c r="AC60" t="inlineStr"/>
+      <c r="AD60" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -8995,6 +9541,15 @@
       </c>
       <c r="AB61" t="inlineStr"/>
       <c r="AC61" t="inlineStr"/>
+      <c r="AD61" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -9134,6 +9689,15 @@
       </c>
       <c r="AB62" t="inlineStr"/>
       <c r="AC62" t="inlineStr"/>
+      <c r="AD62" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -9273,6 +9837,15 @@
       </c>
       <c r="AB63" t="inlineStr"/>
       <c r="AC63" t="inlineStr"/>
+      <c r="AD63" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -9416,6 +9989,15 @@
         </is>
       </c>
       <c r="AC64" t="inlineStr"/>
+      <c r="AD64" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -9555,6 +10137,15 @@
       </c>
       <c r="AB65" t="inlineStr"/>
       <c r="AC65" t="inlineStr"/>
+      <c r="AD65" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -9698,6 +10289,15 @@
         </is>
       </c>
       <c r="AC66" t="inlineStr"/>
+      <c r="AD66" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -9837,6 +10437,15 @@
       </c>
       <c r="AB67" t="inlineStr"/>
       <c r="AC67" t="inlineStr"/>
+      <c r="AD67" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -9976,6 +10585,15 @@
         </is>
       </c>
       <c r="AC68" t="inlineStr"/>
+      <c r="AD68" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
